--- a/record.xlsx
+++ b/record.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86189\eclipse-workspace\gameWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71525E1A-9FCC-40BC-949D-B949088F6190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D94642-675F-4EB3-9515-21D871AF53FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="3132" windowWidth="10548" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6840" yWindow="0" windowWidth="10548" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,15 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>lrz</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,12 +37,29 @@
   <si>
     <t>zq</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qwer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zkj</t>
+  </si>
+  <si>
+    <t>huj</t>
+  </si>
+  <si>
+    <t>hh</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -369,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -378,35 +387,67 @@
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B1" s="0">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="0">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s" s="0">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B3" s="0">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" s="0">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>614</v>
+      <c r="B5" t="n" s="0">
+        <v>123.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>576.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n" s="0">
+        <v>999.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>676.0</v>
       </c>
     </row>
   </sheetData>
